--- a/notebooks/assets/test_random_selection/RFpm25_st0_01_mountains.xlsx
+++ b/notebooks/assets/test_random_selection/RFpm25_st0_01_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.32</v>
+        <v>0.241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224</v>
+        <v>0.189</v>
       </c>
       <c r="D2" t="n">
-        <v>0.202</v>
+        <v>0.131</v>
       </c>
       <c r="E2" t="n">
-        <v>0.234</v>
+        <v>0.181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.143</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.632</v>
+        <v>0.48</v>
       </c>
       <c r="C3" t="n">
-        <v>0.373</v>
+        <v>0.361</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.224</v>
       </c>
       <c r="E3" t="n">
-        <v>0.452</v>
+        <v>0.331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.239</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.424</v>
+        <v>0.268</v>
       </c>
       <c r="C4" t="n">
-        <v>0.14</v>
+        <v>0.136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.134</v>
+        <v>0.05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.244</v>
+        <v>0.115</v>
       </c>
       <c r="F4" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.989</v>
+        <v>0.993</v>
       </c>
       <c r="C5" t="n">
         <v>0.985</v>
       </c>
       <c r="D5" t="n">
-        <v>0.962</v>
+        <v>0.986</v>
       </c>
       <c r="E5" t="n">
-        <v>0.983</v>
+        <v>0.992</v>
       </c>
       <c r="F5" t="n">
         <v>0.993</v>
@@ -558,7 +558,7 @@
         <v>8.965999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>7.567</v>
+        <v>7.566</v>
       </c>
       <c r="D6" t="n">
         <v>1.936</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.316</v>
+        <v>10.31</v>
       </c>
       <c r="C7" t="n">
-        <v>8.473000000000001</v>
+        <v>8.472</v>
       </c>
       <c r="D7" t="n">
-        <v>2.491</v>
+        <v>2.487</v>
       </c>
       <c r="E7" t="n">
         <v>4.099</v>
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.422</v>
+        <v>106.414</v>
       </c>
       <c r="C8" t="n">
-        <v>71.82299999999999</v>
+        <v>71.818</v>
       </c>
       <c r="D8" t="n">
-        <v>6.212</v>
+        <v>6.213</v>
       </c>
       <c r="E8" t="n">
-        <v>16.809</v>
+        <v>16.81</v>
       </c>
       <c r="F8" t="n">
-        <v>20.991</v>
+        <v>20.988</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.824</v>
+        <v>-1.821</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.947</v>
+        <v>-7.099</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.744</v>
+        <v>-0.727</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.162</v>
+        <v>-0.18</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.561</v>
+        <v>-1.578</v>
       </c>
     </row>
   </sheetData>
